--- a/Evaluation/RQ3_Metrics_Evaluation/RQ3_eval.xlsx
+++ b/Evaluation/RQ3_Metrics_Evaluation/RQ3_eval.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bramss/Documents/ETS/PhD/Code_Smells_ML/Code_Smell_Detection/DSL/Spec4AI/Evaluation/RQ3_Metrics_Evaluation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D55F78EA-0DCA-C643-A8BE-3BAEE1EB21BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58062095-C7B4-E34D-B0D9-796E3FFEFE1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4340" yWindow="500" windowWidth="24460" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <r>
       <rPr>
@@ -39,46 +39,6 @@
       </rPr>
       <t xml:space="preserve">
 Rule DSL specification (rules.dsl) time (min)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>Scenario B (using existing predicates only)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">
-Rule DSL specification (rules.dsl) time (min)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>Scenario A (with new predicate)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">
-Predicate implementation (header_predicates.py) (lines)</t>
     </r>
   </si>
   <si>
@@ -480,13 +440,65 @@
       <t xml:space="preserve">
 Total time (min)</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Scenario B (using existing predicates only)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Rule DSL specification (rules.dsl) time (min)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Scenario A (with new predicate)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Predicate implementation (header_predicates.py) (lines)</t>
+    </r>
+  </si>
+  <si>
+    <t>Scenario A (with new predicate)
+DSL lines (lines)</t>
+  </si>
+  <si>
+    <t>Scenario B (using existing predicates only)
+DSL lines (lines)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -509,6 +521,27 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -651,7 +684,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -676,6 +709,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -726,10 +765,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:V4">
-  <tableColumns count="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:X4">
+  <tableColumns count="24">
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Scenario A (with new predicate)_x000a_Rule DSL specification (rules.dsl) time (min)"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Scenario B (using existing predicates only)_x000a_Rule DSL specification (rules.dsl) time (min)"/>
+    <tableColumn id="29" xr3:uid="{9C3EEC09-DE14-6B4C-A61B-56989E843083}" name="Scenario A (with new predicate)_x000a_DSL lines (lines)"/>
+    <tableColumn id="28" xr3:uid="{902A23AA-993C-A84D-9BF1-D850507BAAD7}" name="Scenario B (using existing predicates only)_x000a_DSL lines (lines)"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Scenario A (with new predicate)_x000a_Predicate implementation (header_predicates.py) (lines)"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Scenario B (using existing predicates only)_x000a_Predicate implementation (header_predicates.py) (lines)"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Scenario A (with new predicate)_x000a_DSL generation (parse_dsl.py) (cycles)"/>
@@ -956,95 +997,102 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:V4"/>
+  <dimension ref="A1:X4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="37.1640625" customWidth="1"/>
-    <col min="3" max="4" width="37.6640625" customWidth="1"/>
-    <col min="5" max="5" width="33" customWidth="1"/>
-    <col min="6" max="6" width="36" customWidth="1"/>
-    <col min="7" max="8" width="37.6640625" customWidth="1"/>
-    <col min="9" max="9" width="30" customWidth="1"/>
-    <col min="10" max="10" width="36" customWidth="1"/>
-    <col min="11" max="20" width="37.6640625" customWidth="1"/>
-    <col min="21" max="28" width="18.83203125" customWidth="1"/>
+    <col min="1" max="1" width="37.1640625" customWidth="1"/>
+    <col min="2" max="4" width="33.6640625" customWidth="1"/>
+    <col min="5" max="6" width="37.6640625" customWidth="1"/>
+    <col min="7" max="7" width="33" customWidth="1"/>
+    <col min="8" max="8" width="36" customWidth="1"/>
+    <col min="9" max="10" width="37.6640625" customWidth="1"/>
+    <col min="11" max="11" width="30" customWidth="1"/>
+    <col min="12" max="12" width="36" customWidth="1"/>
+    <col min="13" max="22" width="37.6640625" customWidth="1"/>
+    <col min="23" max="30" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="B1" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="X1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>21</v>
-      </c>
     </row>
-    <row r="2" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>8</v>
       </c>
@@ -1052,17 +1100,17 @@
         <v>5</v>
       </c>
       <c r="C2" s="3">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3">
+        <v>6</v>
+      </c>
+      <c r="E2" s="3">
         <v>10</v>
       </c>
-      <c r="D2" s="3">
+      <c r="F2" s="3">
         <v>0</v>
       </c>
-      <c r="E2" s="3">
-        <v>2</v>
-      </c>
-      <c r="F2" s="3">
-        <v>1</v>
-      </c>
       <c r="G2" s="3">
         <v>2</v>
       </c>
@@ -1070,49 +1118,55 @@
         <v>1</v>
       </c>
       <c r="I2" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J2" s="3">
         <v>1</v>
       </c>
       <c r="K2" s="3">
+        <v>1</v>
+      </c>
+      <c r="L2" s="3">
+        <v>1</v>
+      </c>
+      <c r="M2" s="3">
         <v>3</v>
       </c>
-      <c r="L2" s="3">
-        <v>1</v>
-      </c>
-      <c r="M2" s="3">
-        <v>2</v>
-      </c>
       <c r="N2" s="3">
         <v>1</v>
       </c>
       <c r="O2" s="3">
+        <v>2</v>
+      </c>
+      <c r="P2" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="3">
         <v>3</v>
       </c>
-      <c r="P2" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>1</v>
-      </c>
       <c r="R2" s="3">
         <v>1</v>
       </c>
       <c r="S2" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T2" s="3">
         <v>1</v>
       </c>
       <c r="U2" s="3">
+        <v>2</v>
+      </c>
+      <c r="V2" s="3">
+        <v>1</v>
+      </c>
+      <c r="W2" s="3">
         <v>21</v>
       </c>
-      <c r="V2" s="4">
+      <c r="X2" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5">
         <v>9</v>
       </c>
@@ -1120,31 +1174,31 @@
         <v>4</v>
       </c>
       <c r="C3" s="5">
+        <v>7</v>
+      </c>
+      <c r="D3" s="5">
+        <v>6</v>
+      </c>
+      <c r="E3" s="5">
         <v>14</v>
       </c>
-      <c r="D3" s="5">
+      <c r="F3" s="5">
         <v>0</v>
       </c>
-      <c r="E3" s="5">
+      <c r="G3" s="5">
         <v>4</v>
       </c>
-      <c r="F3" s="5">
-        <v>1</v>
-      </c>
-      <c r="G3" s="5">
+      <c r="H3" s="5">
+        <v>1</v>
+      </c>
+      <c r="I3" s="5">
         <v>3</v>
       </c>
-      <c r="H3" s="5">
-        <v>1</v>
-      </c>
-      <c r="I3" s="5">
-        <v>2</v>
-      </c>
       <c r="J3" s="5">
         <v>1</v>
       </c>
       <c r="K3" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L3" s="5">
         <v>1</v>
@@ -1156,7 +1210,7 @@
         <v>1</v>
       </c>
       <c r="O3" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P3" s="5">
         <v>1</v>
@@ -1168,19 +1222,25 @@
         <v>1</v>
       </c>
       <c r="S3" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T3" s="5">
         <v>1</v>
       </c>
       <c r="U3" s="5">
+        <v>1</v>
+      </c>
+      <c r="V3" s="5">
+        <v>1</v>
+      </c>
+      <c r="W3" s="5">
         <v>36</v>
       </c>
-      <c r="V3" s="6">
+      <c r="X3" s="6">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7">
         <v>8</v>
       </c>
@@ -1191,60 +1251,66 @@
         <v>8</v>
       </c>
       <c r="D4" s="7">
+        <v>7</v>
+      </c>
+      <c r="E4" s="7">
+        <v>8</v>
+      </c>
+      <c r="F4" s="7">
         <v>0</v>
       </c>
-      <c r="E4" s="7">
-        <v>2</v>
-      </c>
-      <c r="F4" s="7">
-        <v>1</v>
-      </c>
       <c r="G4" s="7">
+        <v>2</v>
+      </c>
+      <c r="H4" s="7">
+        <v>1</v>
+      </c>
+      <c r="I4" s="7">
         <v>6</v>
       </c>
-      <c r="H4" s="7">
-        <v>2</v>
-      </c>
-      <c r="I4" s="7">
-        <v>1</v>
-      </c>
       <c r="J4" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K4" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M4" s="7">
+        <v>2</v>
+      </c>
+      <c r="N4" s="7">
+        <v>2</v>
+      </c>
+      <c r="O4" s="7">
         <v>3</v>
       </c>
-      <c r="N4" s="7">
-        <v>2</v>
-      </c>
-      <c r="O4" s="7">
-        <v>2</v>
-      </c>
       <c r="P4" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q4" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R4" s="7">
         <v>1</v>
       </c>
       <c r="S4" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T4" s="7">
         <v>1</v>
       </c>
       <c r="U4" s="7">
+        <v>2</v>
+      </c>
+      <c r="V4" s="7">
+        <v>1</v>
+      </c>
+      <c r="W4" s="7">
         <v>22</v>
       </c>
-      <c r="V4" s="8">
+      <c r="X4" s="8">
         <v>7</v>
       </c>
     </row>
